--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>4.285550149715777</v>
+        <v>0.1507475492416666</v>
       </c>
       <c r="R2">
-        <v>38.569951347442</v>
+        <v>1.356727943175</v>
       </c>
       <c r="S2">
-        <v>0.01701246600963427</v>
+        <v>0.0009922826548578055</v>
       </c>
       <c r="T2">
-        <v>0.01701246600963427</v>
+        <v>0.0009922826548578055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>6.840693789188222</v>
+        <v>1.273847976031667</v>
       </c>
       <c r="R3">
-        <v>61.566244102694</v>
+        <v>11.464631784285</v>
       </c>
       <c r="S3">
-        <v>0.02715568981933373</v>
+        <v>0.008384993705705761</v>
       </c>
       <c r="T3">
-        <v>0.02715568981933373</v>
+        <v>0.008384993705705761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>19.44488407438422</v>
+        <v>3.69755027505</v>
       </c>
       <c r="R4">
-        <v>175.003956669458</v>
+        <v>33.27795247545</v>
       </c>
       <c r="S4">
-        <v>0.07719088980878679</v>
+        <v>0.0243388036611789</v>
       </c>
       <c r="T4">
-        <v>0.07719088980878679</v>
+        <v>0.0243388036611789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>17.84533352322411</v>
+        <v>3.370939026393889</v>
       </c>
       <c r="R5">
-        <v>160.608001709017</v>
+        <v>30.33845123754501</v>
       </c>
       <c r="S5">
-        <v>0.07084111009984838</v>
+        <v>0.02218891347355567</v>
       </c>
       <c r="T5">
-        <v>0.07084111009984839</v>
+        <v>0.02218891347355567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
         <v>28.48513211457989</v>
       </c>
       <c r="R6">
-        <v>256.366189031219</v>
+        <v>256.3661890312191</v>
       </c>
       <c r="S6">
-        <v>0.1130782104863179</v>
+        <v>0.1875009090417646</v>
       </c>
       <c r="T6">
-        <v>0.1130782104863179</v>
+        <v>0.1875009090417646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>80.9698707296259</v>
+        <v>82.68271415967001</v>
       </c>
       <c r="R7">
-        <v>728.728836566633</v>
+        <v>744.1444274370301</v>
       </c>
       <c r="S7">
-        <v>0.3214283173616807</v>
+        <v>0.5442517873751891</v>
       </c>
       <c r="T7">
-        <v>0.3214283173616807</v>
+        <v>0.5442517873751891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N8">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q8">
-        <v>13.18210125698233</v>
+        <v>0.9494010817805554</v>
       </c>
       <c r="R8">
-        <v>118.638911312841</v>
+        <v>8.544609736024999</v>
       </c>
       <c r="S8">
-        <v>0.05232934902998212</v>
+        <v>0.006249350193042425</v>
       </c>
       <c r="T8">
-        <v>0.05232934902998213</v>
+        <v>0.006249350193042425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q9">
-        <v>21.04157343790967</v>
+        <v>8.022635542350555</v>
       </c>
       <c r="R9">
-        <v>189.374160941187</v>
+        <v>72.203719881155</v>
       </c>
       <c r="S9">
-        <v>0.08352931138267097</v>
+        <v>0.05280830192574602</v>
       </c>
       <c r="T9">
-        <v>0.08352931138267097</v>
+        <v>0.05280830192574601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N10">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q10">
-        <v>59.81132453106767</v>
+        <v>23.28700034415</v>
       </c>
       <c r="R10">
-        <v>538.3019207796091</v>
+        <v>209.58300309735</v>
       </c>
       <c r="S10">
-        <v>0.2374346560017451</v>
+        <v>0.1532846579689597</v>
       </c>
       <c r="T10">
-        <v>0.2374346560017451</v>
+        <v>0.1532846579689597</v>
       </c>
     </row>
   </sheetData>
